--- a/Gemini_Specification_v0.11.xlsx
+++ b/Gemini_Specification_v0.11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Decidone\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Decidone\Documents\planet-gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDDC89-7D6F-4EBB-A36D-CC82EA24766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8F953-03A0-49A3-B300-A92D7CA587A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="0" windowWidth="25800" windowHeight="15270" xr2:uid="{A354F445-321E-4D10-8C50-5DD6BE71B426}"/>
+    <workbookView xWindow="10740" yWindow="615" windowWidth="25800" windowHeight="15270" activeTab="1" xr2:uid="{A354F445-321E-4D10-8C50-5DD6BE71B426}"/>
   </bookViews>
   <sheets>
     <sheet name="버전 관리" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="204">
   <si>
     <t>캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료된 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>펌프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,14 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지하/공중 파이프라인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하/공중 벨트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교차기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에너지에 관한 연구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발/테스트를 위한 맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자원의 구성, 용도 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,18 +511,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 to 3, 특정방향을 막는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3 to 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벨트가 +모양으로 교차할 때 섞이지 않도록 제어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화물 플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에너지 변환, 공급 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임오버 트리거 역할도 겸함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,10 +667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유체 분배기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,6 +766,90 @@
   </si>
   <si>
     <t>전기 -&gt; 코어 에너지로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 방어, 공격, 자원(종류별), 지원요청, 랜드마크(적이나 자원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브때 공격을 가도록 특정 적들을 묶어서 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 생산량을 계산하려면 생산건물들을 묶어서 관리할 필요가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 wasd제어, 유닛제어 방식에 따라서 마우스 컨트롤로 바뀔 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 컨트롤(패트롤, 공격, 홀드, 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발/테스트를 위한 맵 + 시나리오, 맵-타일 정보를 데이터로 가지고 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지스러운 무언가를 만들 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨트 제어 필요, 묶어서 관리, 건설모드에서 합쳐지도록 맵 연동 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 to 3, 특정방향을 막는 기능, 특정 방향 우선 기능, 필터 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 거리 내 벨트와 자동으로 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하 파이프라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 유속 변경은 생각 안 함, 같은 액체가 든 파이프만 병합 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모되는 자원은 전체 컨테이너에서 균등하게 가져올 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 전송기 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴됐을 때 없애지 말고 잔해 남기고 수리 가능하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 수리하는 건물/파괴된 건물을 수리하는 유닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적으로 서버 생성한 호스트가 서버를 부담, 호스트와 클라이언트를 매칭해주는 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트 플레이어 쪽에서 돌아감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA3F1BE-7A87-4818-9A85-CDCCD033FBD2}">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1240,16 +1284,16 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2">
         <v>44828</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1260,25 +1304,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB719589-9D7B-48A0-8CA6-0678CCE33853}">
-  <dimension ref="B2:F88"/>
+  <dimension ref="B2:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="6" max="6" width="59.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1297,21 +1341,21 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1332,15 +1376,15 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -1350,37 +1394,43 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
+      <c r="F13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
@@ -1396,7 +1446,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
@@ -1406,21 +1459,21 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
@@ -1428,7 +1481,10 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
@@ -1436,261 +1492,285 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>59</v>
+        <v>192</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
         <v>48</v>
       </c>
-      <c r="F42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E47" t="s">
-        <v>54</v>
+      <c r="F47" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
-        <v>166</v>
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
         <v>44</v>
       </c>
-      <c r="E50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" t="s">
         <v>131</v>
       </c>
-      <c r="F53" t="s">
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
         <v>133</v>
       </c>
-      <c r="F55" t="s">
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>139</v>
       </c>
-      <c r="F58" t="s">
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" t="s">
-        <v>136</v>
-      </c>
       <c r="F67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>153</v>
       </c>
@@ -1698,109 +1778,107 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
       <c r="E69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
         <v>155</v>
       </c>
-      <c r="F69" t="s">
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E71" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E74" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>12</v>
       </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s">
+        <v>201</v>
+      </c>
+      <c r="F80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>202</v>
+      </c>
+      <c r="F81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E88" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1822,87 +1900,87 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1923,62 +2001,62 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2082,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -2014,7 +2092,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -2024,7 +2102,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -2034,7 +2112,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -2044,12 +2122,12 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -2059,82 +2137,82 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
